--- a/working_windows_extension/version_3/booking/dist/Expenses.xlsx
+++ b/working_windows_extension/version_3/booking/dist/Expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
   <si>
     <t>Confirmation Number</t>
   </si>
@@ -31,37 +31,127 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Fedrique PIERRE</t>
-  </si>
-  <si>
-    <t>242.97 USD</t>
+    <t>Sheila Felix</t>
+  </si>
+  <si>
+    <t>80.44 USD</t>
+  </si>
+  <si>
+    <t>Checked in, but different date</t>
+  </si>
+  <si>
+    <t>Eric Winslow</t>
+  </si>
+  <si>
+    <t>77.9 USD</t>
+  </si>
+  <si>
+    <t>70.11 USD</t>
+  </si>
+  <si>
+    <t>Efthymios Ioannidis</t>
+  </si>
+  <si>
+    <t>114.92 USD</t>
+  </si>
+  <si>
+    <t>Christopher Bellows</t>
+  </si>
+  <si>
+    <t>87.2 USD</t>
+  </si>
+  <si>
+    <t>87.82 USD</t>
+  </si>
+  <si>
+    <t>135.32 USD</t>
+  </si>
+  <si>
+    <t>138.58 USD</t>
+  </si>
+  <si>
+    <t>122.18 USD</t>
+  </si>
+  <si>
+    <t>Andrew McGrath</t>
+  </si>
+  <si>
+    <t>486.72 USD</t>
+  </si>
+  <si>
+    <t>wendy williams</t>
+  </si>
+  <si>
+    <t>240.48 USD</t>
+  </si>
+  <si>
+    <t>76.75 USD</t>
+  </si>
+  <si>
+    <t>Rory Glass</t>
+  </si>
+  <si>
+    <t>78.95 USD</t>
+  </si>
+  <si>
+    <t>103.43 USD</t>
+  </si>
+  <si>
+    <t>Brianna Orillie Benallie</t>
+  </si>
+  <si>
+    <t>142.68 USD</t>
+  </si>
+  <si>
+    <t>kelly jones</t>
+  </si>
+  <si>
+    <t>391.68 USD</t>
+  </si>
+  <si>
+    <t>ARANTXA GARCIA LOPEZ</t>
+  </si>
+  <si>
+    <t>1995.97 USD</t>
   </si>
   <si>
     <t>Canceled</t>
   </si>
   <si>
-    <t>Yaning Qiao</t>
-  </si>
-  <si>
-    <t>118.15 USD</t>
-  </si>
-  <si>
-    <t>Checked in, but different date</t>
-  </si>
-  <si>
-    <t>dongxu liu</t>
-  </si>
-  <si>
-    <t>95.45 USD</t>
-  </si>
-  <si>
-    <t>Terrance Graham</t>
-  </si>
-  <si>
-    <t>119 USD</t>
-  </si>
-  <si>
-    <t>98.77 USD</t>
+    <t>90.47 USD</t>
+  </si>
+  <si>
+    <t>Mary Panas</t>
+  </si>
+  <si>
+    <t>146.78 USD</t>
+  </si>
+  <si>
+    <t>140 USD</t>
+  </si>
+  <si>
+    <t>Creigh Horvath</t>
+  </si>
+  <si>
+    <t>92.65 USD</t>
+  </si>
+  <si>
+    <t>Brenay Maxwell</t>
+  </si>
+  <si>
+    <t>92 USD</t>
+  </si>
+  <si>
+    <t>James Hendricks</t>
+  </si>
+  <si>
+    <t>110 USD</t>
+  </si>
+  <si>
+    <t>William Freeman</t>
+  </si>
+  <si>
+    <t>578.78 USD</t>
   </si>
 </sst>
 </file>
@@ -393,7 +483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -418,10 +508,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>1877709056</v>
+        <v>2042333754</v>
       </c>
       <c r="B2">
-        <v>59179638</v>
+        <v>71029880</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -435,10 +525,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>1897301393</v>
+        <v>1477445733</v>
       </c>
       <c r="B3">
-        <v>72889558</v>
+        <v>71267117</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -447,38 +537,38 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>1353782608</v>
+        <v>1051551450</v>
       </c>
       <c r="B4">
-        <v>81897220</v>
+        <v>54213047</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>1526364779</v>
+        <v>1270513409</v>
       </c>
       <c r="B5">
-        <v>80862497</v>
+        <v>50277402</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -486,19 +576,342 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>1981936382</v>
+        <v>1334266796</v>
       </c>
       <c r="B6">
-        <v>81424613</v>
+        <v>57963468</v>
       </c>
       <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>1472594763</v>
+      </c>
+      <c r="B7">
+        <v>54213047</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>1281073539</v>
+      </c>
+      <c r="B8">
+        <v>50267831</v>
+      </c>
+      <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>1411374768</v>
+      </c>
+      <c r="B9">
+        <v>58409279</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>1690139665</v>
+      </c>
+      <c r="B10">
+        <v>57963468</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>1349255584</v>
+      </c>
+      <c r="B11">
+        <v>58313536</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>1907579802</v>
+      </c>
+      <c r="B12">
+        <v>72281495</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>1323263105</v>
+      </c>
+      <c r="B13">
+        <v>72281495</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>1429960591</v>
+      </c>
+      <c r="B14">
+        <v>59093456</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>1169572876</v>
+      </c>
+      <c r="B15">
+        <v>56246808</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>1238374822</v>
+      </c>
+      <c r="B16">
+        <v>62146275</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>2074851612</v>
+      </c>
+      <c r="B17">
+        <v>60611780</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>1006274810</v>
+      </c>
+      <c r="B18">
+        <v>35181438</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>1297977423</v>
+      </c>
+      <c r="B19">
+        <v>54213047</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>1660313627</v>
+      </c>
+      <c r="B20">
+        <v>69433708</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>1695526175</v>
+      </c>
+      <c r="B21">
+        <v>55789199</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>1521154839</v>
+      </c>
+      <c r="B22">
+        <v>62933052</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>1638000432</v>
+      </c>
+      <c r="B23">
+        <v>56694042</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>1038186685</v>
+      </c>
+      <c r="B24">
+        <v>72283375</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>1297975486</v>
+      </c>
+      <c r="B25">
+        <v>70693555</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
